--- a/Mifos Automation Excels/Loan Product/2404-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-DLR-CASH-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2404-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-DLR-CASH-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -201,9 +201,6 @@
     <t>US Dollar</t>
   </si>
   <si>
-    <t>Overdue/Due Fee/Int,Principal</t>
-  </si>
-  <si>
     <t>islinkedtofloatinginterestrates</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>2404-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-DLR-CASH</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -300,6 +300,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -374,11 +375,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -774,66 +777,66 @@
       </c>
     </row>
     <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="14">
+    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="B17" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
     </row>
@@ -850,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -865,8 +868,8 @@
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>61</v>
+      <c r="B22" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1086,7 +1089,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1108,177 +1111,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="B3" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="15">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="16">
-        <v>42096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="15">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="16">
-        <v>42125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="B15" s="15">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="16">
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="15">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="16">
-        <v>42186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>80</v>
+      <c r="A22" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
